--- a/biology/Botanique/Batrachospermaceae/Batrachospermaceae.xlsx
+++ b/biology/Botanique/Batrachospermaceae/Batrachospermaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Batrachospermaceae sont une famille d’algues rouges de l’ordre des Batrachospermales, vivant en eaux douces.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom provient du genre type Batrachospermum, construit à partir du préfixe batrach-, grenouille (grec βατρακοσ / batrakos), et du suffixe -sperm, « semence ; graine » (grec σπερμ / sperm) ; littéralement « semence de grenouille » ; en effet, selon Charles d'Orbigny : « l'espèce la plus commune... B. moniliforme est remarquable par sa consistance gélatineuse et les paquets globuleux de ses ramules qui se trouvant espacés assez également sur les filaments principaux lui donnent quelque ressemblance avec le frai de Grenouille ainsi que l'exprime l'étymologie du nom de ce genre »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom provient du genre type Batrachospermum, construit à partir du préfixe batrach-, grenouille (grec βατρακοσ / batrakos), et du suffixe -sperm, « semence ; graine » (grec σπερμ / sperm) ; littéralement « semence de grenouille » ; en effet, selon Charles d'Orbigny : « l'espèce la plus commune... B. moniliforme est remarquable par sa consistance gélatineuse et les paquets globuleux de ses ramules qui se trouvant espacés assez également sur les filaments principaux lui donnent quelque ressemblance avec le frai de Grenouille ainsi que l'exprime l'étymologie du nom de ce genre ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (25 décembre 2021) :
 Atrophycus Necchi &amp; Rossignolo
 Balliopsis G.W.Saunders &amp; Necchi
 Batrachospermum Roth
@@ -562,11 +578,11 @@
 Tuomeya Harvey
 Volatus I.S.Chapuis &amp; M.L.Vis
 Wattsia Skuja ex T.J.Entwisle &amp; H.J.Foard
-Selon ITIS      (25 décembre 2021)[4] :
+Selon ITIS      (25 décembre 2021) :
 Batrachospermum A. W. Roth, 1797
 Pseudochantransia K. E. Lee &amp; H. C. Bold, 1973
 Sirodotia
-Selon NCBI  (25 décembre 2021)[5] :
+Selon NCBI  (25 décembre 2021) :
 Acarposporophycos
 Ahidranoa
 Batrachospermum Roth, 1797
@@ -586,11 +602,11 @@
 Virescentia
 Visia
 Volatus Chapuis &amp; Vis, 2017
-Selon Tropicos                                           (25 décembre 2021)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 décembre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Batrachospermum Roth
 Psilosiphon Entwisle
 Tuomeya Harv.
-Selon World Register of Marine Species                               (25 décembre 2021)[6] :
+Selon World Register of Marine Species                               (25 décembre 2021) :
 Acarposporophycos O.Necchi, 2019
 Atrophycus Necchi &amp; Rossignolo, 2017
 Balliopsis G.W.Saunders &amp; Necchi, 2002
